--- a/Content/DataTable/xlsx/Weapon.xlsx
+++ b/Content/DataTable/xlsx/Weapon.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\star_\OneDrive\바탕 화면\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ProjectKTY\Content\DataTable\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43177F5C-E473-4786-8DF0-D7F466DA9B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{351A5E0E-3C8C-4AF8-947C-015DBD3FF250}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="540" windowWidth="31095" windowHeight="19950" activeTab="1" xr2:uid="{1946F999-D947-40E7-9F58-A7E49EF41B8E}"/>
+    <workbookView xWindow="1200" yWindow="540" windowWidth="31095" windowHeight="19950" activeTab="2" xr2:uid="{1946F999-D947-40E7-9F58-A7E49EF41B8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Weapon" sheetId="2" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="134">
   <si>
     <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -526,6 +526,38 @@
   </si>
   <si>
     <t>BossAmmo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>참고 스탯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>효과 스탯 비율</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반경 (구체 반지름)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>String</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -640,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -672,15 +704,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1961,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB60561B-A123-4EF6-9651-3B145DE2D2C9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2607,8 +2630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF0CFA4-7ED6-4923-82B8-0B50125B65E4}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2628,9 +2651,15 @@
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="D1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>130</v>
+      </c>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
@@ -2652,9 +2681,15 @@
       <c r="C2" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>131</v>
+      </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
@@ -2676,9 +2711,15 @@
       <c r="C3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
+      <c r="D3" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>132</v>
+      </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
@@ -2719,14 +2760,14 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
@@ -2739,14 +2780,14 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
@@ -2759,14 +2800,14 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
@@ -2777,14 +2818,14 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
@@ -2795,14 +2836,14 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
@@ -2813,14 +2854,14 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
@@ -2831,14 +2872,14 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
@@ -2849,14 +2890,14 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
@@ -2867,14 +2908,14 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="4"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
@@ -2885,14 +2926,14 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="4"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
@@ -2903,14 +2944,14 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="4"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
@@ -2921,14 +2962,14 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="4"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
@@ -2939,14 +2980,14 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="4"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
@@ -2957,14 +2998,14 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="4"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
@@ -2975,14 +3016,14 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="4"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
@@ -2993,14 +3034,14 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="4"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
@@ -3011,14 +3052,14 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="4"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
@@ -3029,14 +3070,14 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="4"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
@@ -3047,14 +3088,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
@@ -3065,14 +3106,14 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
@@ -3083,14 +3124,14 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:P4" xr:uid="{F3270646-BEC6-4596-A289-F7AF3749EAB7}"/>
